--- a/results/mp/logistic/corona/confidence/42/desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>problem</t>
   </si>
   <si>
     <t>sc</t>
@@ -79,18 +79,18 @@
     <t>fears</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -103,181 +103,187 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -754,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9416666666666667</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8116438356164384</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.9138381201044387</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>350</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>350</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8055555555555556</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,16 +981,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7931034482758621</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.9017857142857143</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7352941176470589</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,16 +1081,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -1122,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8773584905660378</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5873015873015873</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C12">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5423728813559322</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.8723404255319149</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5290697674418605</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C14">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D14">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8658536585365854</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4901960784313725</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.859375</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,16 +1381,16 @@
         <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.852112676056338</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3818181818181818</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.8461538461538461</v>
+        <v>0.85625</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3422818791946309</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3333333333333333</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.8372093023255814</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C20">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.8205128205128205</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2555555555555555</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.8148148148148148</v>
+        <v>0.825</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1507936507936508</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1710,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06970509383378017</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.8</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,37 +1760,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009716941275876637</v>
+        <v>0.01712992889463478</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="F24">
-        <v>0.6599999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2344</v>
+        <v>3041</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1810,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00827165868524162</v>
+        <v>0.01692047377326565</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="F25">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2278</v>
+        <v>2324</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,37 +1860,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007416962270235408</v>
+        <v>0.01649387370405278</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="F26">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3078</v>
+        <v>2087</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.7878787878787878</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,37 +1910,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00630715862503942</v>
+        <v>0.01311188811188811</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="F27">
-        <v>0.4</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3151</v>
+        <v>2258</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.7857142857142857</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,37 +1960,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.004301075268817204</v>
+        <v>0.008243375858684985</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E28">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F28">
-        <v>0.3100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>5093</v>
+        <v>5053</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.7777777777777778</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,89 +2010,137 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004244996967859308</v>
+        <v>0.007260221627818112</v>
       </c>
       <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>0.75</v>
+      </c>
+      <c r="F29">
+        <v>0.25</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2598</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.7470588235294118</v>
+      </c>
+      <c r="L29">
+        <v>254</v>
+      </c>
+      <c r="M29">
+        <v>254</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.006088897909478384</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>0.7</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4897</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>0.7312925170068028</v>
+      </c>
+      <c r="L30">
+        <v>215</v>
+      </c>
+      <c r="M30">
+        <v>216</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.004903105300023348</v>
+      </c>
+      <c r="C31">
         <v>21</v>
       </c>
-      <c r="D29">
-        <v>70</v>
-      </c>
-      <c r="E29">
-        <v>0.7</v>
-      </c>
-      <c r="F29">
-        <v>0.3</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>4926</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.75</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="D31">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>0.68</v>
+      </c>
+      <c r="F31">
+        <v>0.32</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>4262</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.7423728813559322</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2098,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.7352941176470589</v>
+        <v>0.7</v>
       </c>
       <c r="L32">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2124,12 +2178,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K33">
         <v>0.6890756302521008</v>
@@ -2155,16 +2209,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.6853932584269663</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2176,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.6808510638297872</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L35">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M35">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2202,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2228,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.6461538461538462</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2254,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2280,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.5686274509803921</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2306,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.5238095238095238</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2332,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.46875</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2358,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.4666666666666667</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2384,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2410,21 +2464,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.4383561643835616</v>
+        <v>0.4375</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2436,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.3389830508474576</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2462,21 +2516,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.3055555555555556</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2488,293 +2542,371 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.1544715447154472</v>
+        <v>0.05523012552301255</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>104</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.03675856307435255</v>
+        <v>0.05118829981718465</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1153</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="K49">
-        <v>0.02332657200811359</v>
+        <v>0.02110022607385079</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="N49">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="O49">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>963</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.0188040616773223</v>
+        <v>0.02093802345058627</v>
       </c>
       <c r="L50">
         <v>50</v>
       </c>
       <c r="M50">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N50">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="O50">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2609</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.01505016722408027</v>
+        <v>0.02079395085066163</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>2356</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.01386263390044108</v>
+        <v>0.0203125</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N52">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="O52">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1565</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.01110654051830522</v>
+        <v>0.01647446457990115</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N53">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="O53">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2404</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.009849246231155779</v>
+        <v>0.0153942821237826</v>
       </c>
       <c r="L54">
         <v>49</v>
       </c>
       <c r="M54">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N54">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="O54">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4926</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K55">
-        <v>0.009721952167995334</v>
+        <v>0.01389448248086991</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M55">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N55">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="O55">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>5093</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="K56">
-        <v>0.009512761020881671</v>
+        <v>0.01366386882685926</v>
       </c>
       <c r="L56">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M56">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="N56">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="O56">
-        <v>0.3100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>4269</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57">
+        <v>0.01072261072261072</v>
+      </c>
+      <c r="L57">
+        <v>23</v>
+      </c>
+      <c r="M57">
+        <v>36</v>
+      </c>
+      <c r="N57">
+        <v>0.64</v>
+      </c>
+      <c r="O57">
+        <v>0.36</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58">
+        <v>0.01044810773159972</v>
+      </c>
+      <c r="L58">
+        <v>45</v>
+      </c>
+      <c r="M58">
+        <v>66</v>
+      </c>
+      <c r="N58">
+        <v>0.68</v>
+      </c>
+      <c r="O58">
+        <v>0.32</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59">
+        <v>0.009962049335863378</v>
+      </c>
+      <c r="L59">
+        <v>21</v>
+      </c>
+      <c r="M59">
+        <v>56</v>
+      </c>
+      <c r="N59">
+        <v>0.38</v>
+      </c>
+      <c r="O59">
+        <v>0.62</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K57">
-        <v>0.009430996541967935</v>
-      </c>
-      <c r="L57">
-        <v>30</v>
-      </c>
-      <c r="M57">
-        <v>50</v>
-      </c>
-      <c r="N57">
-        <v>0.6</v>
-      </c>
-      <c r="O57">
-        <v>0.4</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3151</v>
+      <c r="K60">
+        <v>0.009214567792891619</v>
+      </c>
+      <c r="L60">
+        <v>21</v>
+      </c>
+      <c r="M60">
+        <v>51</v>
+      </c>
+      <c r="N60">
+        <v>0.41</v>
+      </c>
+      <c r="O60">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2258</v>
       </c>
     </row>
   </sheetData>
